--- a/samples/charts/sbk-file-read.xlsx
+++ b/samples/charts/sbk-file-read.xlsx
@@ -43,6 +43,13 @@
     <sheet name="Percentile_99.9" sheetId="35" state="visible" r:id="rId35"/>
     <sheet name="Percentile_99.95" sheetId="36" state="visible" r:id="rId36"/>
     <sheet name="Percentile_99.99" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="Total_Percentiles_1" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="Total_Percentiles_2" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="Total_MB" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="Total_Throughput_MB" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="Total_Throughput_Records" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="Total_Avg_Latency" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="Total_Max_Latency" sheetId="44" state="visible" r:id="rId44"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3548,6 +3555,658 @@
 </chartSpace>
 </file>
 
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Total Percentiles</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>T1_FILE_2</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'T1'!$Y$1:$AD$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'T1'!$Y$2:$AD$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Percentiles</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Latency time in NANOSECONDS</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Total Percentiles</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>T1_FILE_2</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'T1'!$AD$1:$AS$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'T1'!$AD$2:$AS$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Percentiles</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Latency time in NANOSECONDS</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Total Mega Bytes Reading</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>T1-FILE-MB</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'T1'!$N$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Reading</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>MB</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Total Throughput Variations in Mega Bytes / Seconds</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>T1-FILE-MB/Sec</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'T1'!$Q$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Reading</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Total Throughput in MB/Sec</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Total Throughput Variations in Records / Seconds</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>T1-FILE-Records/Sec</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'T1'!$P$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Reading</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Total Throughput in Records/Sec</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Total Average Latency Comparison</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>T1-FILE-AvgLatency</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'T1'!$R$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Reading</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Total Average Latency</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
@@ -3665,6 +4324,111 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Latency time in NANOSECONDS</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Total Max Latency Comparison</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>T1-FILE-MaxLatency</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'T1'!$S$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Reading</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Total Max Latency</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -5639,6 +6403,141 @@
 </wsDr>
 </file>
 
+<file path=xl/drawings/drawing35.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="18000000" cy="9000000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing36.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="18000000" cy="9000000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing37.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="18000000" cy="9000000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing38.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="18000000" cy="9000000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing39.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="18000000" cy="9000000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
@@ -5649,6 +6548,60 @@
       <rowOff>0</rowOff>
     </from>
     <ext cx="25200000" cy="25200000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing40.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="18000000" cy="9000000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing41.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="18000000" cy="9000000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -10896,6 +11849,44 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -10924,7 +11915,7 @@
     <row r="8">
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>SBK Version : 0.96</t>
+          <t>SBK Version : 0.991</t>
         </is>
       </c>
     </row>
@@ -10961,6 +11952,101 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/samples/charts/sbk-file-read.xlsx
+++ b/samples/charts/sbk-file-read.xlsx
@@ -255,7 +255,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$P$2:$P$25</f>
+              <f>'R1'!$P$2:$P$13</f>
             </numRef>
           </val>
         </ser>
@@ -280,7 +280,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$T$2:$T$25</f>
+              <f>'R1'!$T$2:$T$13</f>
             </numRef>
           </val>
         </ser>
@@ -305,7 +305,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$Y$2:$Y$25</f>
+              <f>'R1'!$AE$2:$AE$13</f>
             </numRef>
           </val>
         </ser>
@@ -416,7 +416,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$Z$2:$Z$25</f>
+              <f>'R1'!$AF$2:$AF$13</f>
             </numRef>
           </val>
         </ser>
@@ -441,7 +441,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AN$2:$AN$25</f>
+              <f>'R1'!$AT$2:$AT$13</f>
             </numRef>
           </val>
         </ser>
@@ -552,7 +552,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AN$2:$AN$25</f>
+              <f>'R1'!$AT$2:$AT$13</f>
             </numRef>
           </val>
         </ser>
@@ -577,7 +577,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AO$2:$AO$25</f>
+              <f>'R1'!$AU$2:$AU$13</f>
             </numRef>
           </val>
         </ser>
@@ -602,7 +602,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AP$2:$AP$25</f>
+              <f>'R1'!$AV$2:$AV$13</f>
             </numRef>
           </val>
         </ser>
@@ -627,7 +627,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AQ$2:$AQ$25</f>
+              <f>'R1'!$AW$2:$AW$13</f>
             </numRef>
           </val>
         </ser>
@@ -652,7 +652,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AR$2:$AR$25</f>
+              <f>'R1'!$AX$2:$AX$13</f>
             </numRef>
           </val>
         </ser>
@@ -677,7 +677,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AS$2:$AS$25</f>
+              <f>'R1'!$AY$2:$AY$13</f>
             </numRef>
           </val>
         </ser>
@@ -788,7 +788,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AT$2:$AT$25</f>
+              <f>'R1'!$AZ$2:$AZ$13</f>
             </numRef>
           </val>
         </ser>
@@ -813,7 +813,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AU$2:$AU$25</f>
+              <f>'R1'!$BA$2:$BA$13</f>
             </numRef>
           </val>
         </ser>
@@ -838,7 +838,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AV$2:$AV$25</f>
+              <f>'R1'!$BB$2:$BB$13</f>
             </numRef>
           </val>
         </ser>
@@ -863,7 +863,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AW$2:$AW$25</f>
+              <f>'R1'!$BC$2:$BC$13</f>
             </numRef>
           </val>
         </ser>
@@ -888,7 +888,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AX$2:$AX$25</f>
+              <f>'R1'!$BD$2:$BD$13</f>
             </numRef>
           </val>
         </ser>
@@ -913,7 +913,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AY$2:$AY$25</f>
+              <f>'R1'!$BE$2:$BE$13</f>
             </numRef>
           </val>
         </ser>
@@ -938,7 +938,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AZ$2:$AZ$25</f>
+              <f>'R1'!$BF$2:$BF$13</f>
             </numRef>
           </val>
         </ser>
@@ -963,7 +963,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$BA$2:$BA$25</f>
+              <f>'R1'!$BG$2:$BG$13</f>
             </numRef>
           </val>
         </ser>
@@ -988,7 +988,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$BB$2:$BB$25</f>
+              <f>'R1'!$BH$2:$BH$13</f>
             </numRef>
           </val>
         </ser>
@@ -1013,7 +1013,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$BC$2:$BC$25</f>
+              <f>'R1'!$BI$2:$BI$13</f>
             </numRef>
           </val>
         </ser>
@@ -1124,7 +1124,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$Z$2:$Z$25</f>
+              <f>'R1'!$AF$2:$AF$13</f>
             </numRef>
           </val>
         </ser>
@@ -1235,7 +1235,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AA$2:$AA$25</f>
+              <f>'R1'!$AG$2:$AG$13</f>
             </numRef>
           </val>
         </ser>
@@ -1346,7 +1346,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AB$2:$AB$25</f>
+              <f>'R1'!$AH$2:$AH$13</f>
             </numRef>
           </val>
         </ser>
@@ -1457,7 +1457,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AH$2:$AH$25</f>
+              <f>'R1'!$AN$2:$AN$13</f>
             </numRef>
           </val>
         </ser>
@@ -1568,7 +1568,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AI$2:$AI$25</f>
+              <f>'R1'!$AO$2:$AO$13</f>
             </numRef>
           </val>
         </ser>
@@ -1679,7 +1679,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AJ$2:$AJ$25</f>
+              <f>'R1'!$AP$2:$AP$13</f>
             </numRef>
           </val>
         </ser>
@@ -1790,7 +1790,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AK$2:$AK$25</f>
+              <f>'R1'!$AQ$2:$AQ$13</f>
             </numRef>
           </val>
         </ser>
@@ -1901,7 +1901,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$O$2:$O$25</f>
+              <f>'R1'!$O$2:$O$13</f>
             </numRef>
           </val>
         </ser>
@@ -1926,7 +1926,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$S$2:$S$25</f>
+              <f>'R1'!$S$2:$S$13</f>
             </numRef>
           </val>
         </ser>
@@ -1951,7 +1951,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$X$2:$X$25</f>
+              <f>'R1'!$AD$2:$AD$13</f>
             </numRef>
           </val>
         </ser>
@@ -2062,7 +2062,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AL$2:$AL$25</f>
+              <f>'R1'!$AR$2:$AR$13</f>
             </numRef>
           </val>
         </ser>
@@ -2173,7 +2173,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AM$2:$AM$25</f>
+              <f>'R1'!$AS$2:$AS$13</f>
             </numRef>
           </val>
         </ser>
@@ -2284,7 +2284,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AN$2:$AN$25</f>
+              <f>'R1'!$AT$2:$AT$13</f>
             </numRef>
           </val>
         </ser>
@@ -2395,7 +2395,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AO$2:$AO$25</f>
+              <f>'R1'!$AU$2:$AU$13</f>
             </numRef>
           </val>
         </ser>
@@ -2506,7 +2506,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AP$2:$AP$25</f>
+              <f>'R1'!$AV$2:$AV$13</f>
             </numRef>
           </val>
         </ser>
@@ -2617,7 +2617,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AQ$2:$AQ$25</f>
+              <f>'R1'!$AW$2:$AW$13</f>
             </numRef>
           </val>
         </ser>
@@ -2728,7 +2728,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AR$2:$AR$25</f>
+              <f>'R1'!$AX$2:$AX$13</f>
             </numRef>
           </val>
         </ser>
@@ -2839,7 +2839,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AS$2:$AS$25</f>
+              <f>'R1'!$AY$2:$AY$13</f>
             </numRef>
           </val>
         </ser>
@@ -2950,7 +2950,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AT$2:$AT$25</f>
+              <f>'R1'!$AZ$2:$AZ$13</f>
             </numRef>
           </val>
         </ser>
@@ -3061,7 +3061,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AU$2:$AU$25</f>
+              <f>'R1'!$BA$2:$BA$13</f>
             </numRef>
           </val>
         </ser>
@@ -3172,7 +3172,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AA$2:$AA$25</f>
+              <f>'R1'!$AG$2:$AG$13</f>
             </numRef>
           </val>
         </ser>
@@ -3197,7 +3197,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AH$2:$AH$25</f>
+              <f>'R1'!$AN$2:$AN$13</f>
             </numRef>
           </val>
         </ser>
@@ -3308,7 +3308,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AV$2:$AV$25</f>
+              <f>'R1'!$BB$2:$BB$13</f>
             </numRef>
           </val>
         </ser>
@@ -3419,7 +3419,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AW$2:$AW$25</f>
+              <f>'R1'!$BC$2:$BC$13</f>
             </numRef>
           </val>
         </ser>
@@ -3530,7 +3530,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AX$2:$AX$25</f>
+              <f>'R1'!$BD$2:$BD$13</f>
             </numRef>
           </val>
         </ser>
@@ -3641,7 +3641,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AY$2:$AY$25</f>
+              <f>'R1'!$BE$2:$BE$13</f>
             </numRef>
           </val>
         </ser>
@@ -3752,7 +3752,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AZ$2:$AZ$25</f>
+              <f>'R1'!$BF$2:$BF$13</f>
             </numRef>
           </val>
         </ser>
@@ -3863,7 +3863,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$BA$2:$BA$25</f>
+              <f>'R1'!$BG$2:$BG$13</f>
             </numRef>
           </val>
         </ser>
@@ -3974,7 +3974,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$BB$2:$BB$25</f>
+              <f>'R1'!$BH$2:$BH$13</f>
             </numRef>
           </val>
         </ser>
@@ -4085,7 +4085,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$BC$2:$BC$25</f>
+              <f>'R1'!$BI$2:$BI$13</f>
             </numRef>
           </val>
         </ser>
@@ -4196,12 +4196,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'T1'!$AH$1:$AN$1</f>
+              <f>'T1'!$AN$1:$AT$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'T1'!$AH$2:$AN$2</f>
+              <f>'T1'!$AN$2:$AT$2</f>
             </numRef>
           </val>
         </ser>
@@ -4312,12 +4312,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'T1'!$AN$1:$BC$1</f>
+              <f>'T1'!$AT$1:$BI$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'T1'!$AN$2:$BC$2</f>
+              <f>'T1'!$AT$2:$BI$2</f>
             </numRef>
           </val>
         </ser>
@@ -4428,7 +4428,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AH$2:$AH$25</f>
+              <f>'R1'!$AN$2:$AN$13</f>
             </numRef>
           </val>
         </ser>
@@ -4453,7 +4453,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AI$2:$AI$25</f>
+              <f>'R1'!$AO$2:$AO$13</f>
             </numRef>
           </val>
         </ser>
@@ -4478,7 +4478,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AJ$2:$AJ$25</f>
+              <f>'R1'!$AP$2:$AP$13</f>
             </numRef>
           </val>
         </ser>
@@ -4503,7 +4503,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AK$2:$AK$25</f>
+              <f>'R1'!$AQ$2:$AQ$13</f>
             </numRef>
           </val>
         </ser>
@@ -4528,7 +4528,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AL$2:$AL$25</f>
+              <f>'R1'!$AR$2:$AR$13</f>
             </numRef>
           </val>
         </ser>
@@ -4553,7 +4553,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AM$2:$AM$25</f>
+              <f>'R1'!$AS$2:$AS$13</f>
             </numRef>
           </val>
         </ser>
@@ -4578,7 +4578,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AN$2:$AN$25</f>
+              <f>'R1'!$AT$2:$AT$13</f>
             </numRef>
           </val>
         </ser>
@@ -4716,7 +4716,7 @@
           </spPr>
           <val>
             <numRef>
-              <f>'T1'!$V$2</f>
+              <f>'T1'!$AB$2</f>
             </numRef>
           </val>
         </ser>
@@ -4855,7 +4855,7 @@
           </spPr>
           <val>
             <numRef>
-              <f>'T1'!$Y$2</f>
+              <f>'T1'!$AE$2</f>
             </numRef>
           </val>
         </ser>
@@ -4994,7 +4994,7 @@
           </spPr>
           <val>
             <numRef>
-              <f>'T1'!$X$2</f>
+              <f>'T1'!$AD$2</f>
             </numRef>
           </val>
         </ser>
@@ -5099,7 +5099,7 @@
           </spPr>
           <val>
             <numRef>
-              <f>'T1'!$AA$2</f>
+              <f>'T1'!$AG$2</f>
             </numRef>
           </val>
         </ser>
@@ -5204,7 +5204,7 @@
           </spPr>
           <val>
             <numRef>
-              <f>'T1'!$Z$2</f>
+              <f>'T1'!$AF$2</f>
             </numRef>
           </val>
         </ser>
@@ -5309,7 +5309,7 @@
           </spPr>
           <val>
             <numRef>
-              <f>'T1'!$AB$2</f>
+              <f>'T1'!$AH$2</f>
             </numRef>
           </val>
         </ser>
@@ -5421,7 +5421,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$Z$2:$Z$25</f>
+              <f>'R1'!$AF$2:$AF$13</f>
             </numRef>
           </val>
         </ser>
@@ -5446,7 +5446,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AN$2:$AN$25</f>
+              <f>'R1'!$AT$2:$AT$13</f>
             </numRef>
           </val>
         </ser>
@@ -5557,7 +5557,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AN$2:$AN$25</f>
+              <f>'R1'!$AT$2:$AT$13</f>
             </numRef>
           </val>
         </ser>
@@ -5582,7 +5582,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AO$2:$AO$25</f>
+              <f>'R1'!$AU$2:$AU$13</f>
             </numRef>
           </val>
         </ser>
@@ -5607,7 +5607,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AP$2:$AP$25</f>
+              <f>'R1'!$AV$2:$AV$13</f>
             </numRef>
           </val>
         </ser>
@@ -5632,7 +5632,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AQ$2:$AQ$25</f>
+              <f>'R1'!$AW$2:$AW$13</f>
             </numRef>
           </val>
         </ser>
@@ -5657,7 +5657,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AR$2:$AR$25</f>
+              <f>'R1'!$AX$2:$AX$13</f>
             </numRef>
           </val>
         </ser>
@@ -5682,7 +5682,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AS$2:$AS$25</f>
+              <f>'R1'!$AY$2:$AY$13</f>
             </numRef>
           </val>
         </ser>
@@ -5793,7 +5793,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AT$2:$AT$25</f>
+              <f>'R1'!$AZ$2:$AZ$13</f>
             </numRef>
           </val>
         </ser>
@@ -5818,7 +5818,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AU$2:$AU$25</f>
+              <f>'R1'!$BA$2:$BA$13</f>
             </numRef>
           </val>
         </ser>
@@ -5843,7 +5843,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AV$2:$AV$25</f>
+              <f>'R1'!$BB$2:$BB$13</f>
             </numRef>
           </val>
         </ser>
@@ -5868,7 +5868,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AW$2:$AW$25</f>
+              <f>'R1'!$BC$2:$BC$13</f>
             </numRef>
           </val>
         </ser>
@@ -5893,7 +5893,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AX$2:$AX$25</f>
+              <f>'R1'!$BD$2:$BD$13</f>
             </numRef>
           </val>
         </ser>
@@ -5918,7 +5918,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AY$2:$AY$25</f>
+              <f>'R1'!$BE$2:$BE$13</f>
             </numRef>
           </val>
         </ser>
@@ -5943,7 +5943,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AZ$2:$AZ$25</f>
+              <f>'R1'!$BF$2:$BF$13</f>
             </numRef>
           </val>
         </ser>
@@ -5968,7 +5968,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$BA$2:$BA$25</f>
+              <f>'R1'!$BG$2:$BG$13</f>
             </numRef>
           </val>
         </ser>
@@ -5993,7 +5993,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$BB$2:$BB$25</f>
+              <f>'R1'!$BH$2:$BH$13</f>
             </numRef>
           </val>
         </ser>
@@ -6018,7 +6018,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$BC$2:$BC$25</f>
+              <f>'R1'!$BI$2:$BI$13</f>
             </numRef>
           </val>
         </ser>
@@ -6129,7 +6129,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AA$2:$AA$25</f>
+              <f>'R1'!$AG$2:$AG$13</f>
             </numRef>
           </val>
         </ser>
@@ -6154,7 +6154,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AH$2:$AH$25</f>
+              <f>'R1'!$AN$2:$AN$13</f>
             </numRef>
           </val>
         </ser>
@@ -6265,7 +6265,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AH$2:$AH$25</f>
+              <f>'R1'!$AN$2:$AN$13</f>
             </numRef>
           </val>
         </ser>
@@ -6290,7 +6290,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AI$2:$AI$25</f>
+              <f>'R1'!$AO$2:$AO$13</f>
             </numRef>
           </val>
         </ser>
@@ -6315,7 +6315,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AJ$2:$AJ$25</f>
+              <f>'R1'!$AP$2:$AP$13</f>
             </numRef>
           </val>
         </ser>
@@ -6340,7 +6340,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AK$2:$AK$25</f>
+              <f>'R1'!$AQ$2:$AQ$13</f>
             </numRef>
           </val>
         </ser>
@@ -6365,7 +6365,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AL$2:$AL$25</f>
+              <f>'R1'!$AR$2:$AR$13</f>
             </numRef>
           </val>
         </ser>
@@ -6390,7 +6390,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AM$2:$AM$25</f>
+              <f>'R1'!$AS$2:$AS$13</f>
             </numRef>
           </val>
         </ser>
@@ -6415,7 +6415,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AN$2:$AN$25</f>
+              <f>'R1'!$AT$2:$AT$13</f>
             </numRef>
           </val>
         </ser>
@@ -6485,48 +6485,29 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <twoCellAnchor editAs="oneCell">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
     <from>
-      <col>10</col>
+      <col>4</col>
       <colOff>0</colOff>
-      <row>6</row>
+      <row>14</row>
       <rowOff>0</rowOff>
     </from>
-    <to>
-      <col>19</col>
-      <colOff>285750</colOff>
-      <row>36</row>
-      <rowOff>71438</rowOff>
-    </to>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="Picture 1" descr="sbk-logo.png"/>
-        <cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </cNvPicPr>
-      </nvPicPr>
-      <blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:xfrm>
-          <a:off x="6096000" y="1143000"/>
-          <a:ext cx="5772150" cy="5786438"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
+    <ext cx="18000000" cy="9000000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
     <clientData/>
-  </twoCellAnchor>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -7106,7 +7087,7 @@
       <row>14</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="18000000" cy="9000000"/>
+    <ext cx="25200000" cy="25200000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -7583,33 +7564,6 @@
 </wsDr>
 </file>
 
-<file path=xl/drawings/drawing46.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>14</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="18000000" cy="9000000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
@@ -7700,7 +7654,7 @@
       <row>14</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="25200000" cy="25200000"/>
+    <ext cx="18000000" cy="9000000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -8029,7 +7983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8043,7 +7997,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8243,7 +8196,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC25"/>
+  <dimension ref="A1:BI13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8271,41 +8224,47 @@
     <col width="18.7109375" customWidth="1" min="18" max="18"/>
     <col width="22.7109375" customWidth="1" min="19" max="19"/>
     <col width="17.7109375" customWidth="1" min="20" max="20"/>
-    <col width="13.7109375" customWidth="1" min="21" max="21"/>
-    <col width="5.7109375" customWidth="1" min="22" max="22"/>
-    <col width="8.7109375" customWidth="1" min="23" max="23"/>
-    <col width="11.7109375" customWidth="1" min="24" max="24"/>
-    <col width="6.7109375" customWidth="1" min="25" max="25"/>
-    <col width="10.7109375" customWidth="1" min="26" max="26"/>
-    <col width="10.7109375" customWidth="1" min="27" max="27"/>
-    <col width="10.7109375" customWidth="1" min="28" max="28"/>
-    <col width="16.7109375" customWidth="1" min="29" max="29"/>
-    <col width="12.7109375" customWidth="1" min="30" max="30"/>
-    <col width="13.7109375" customWidth="1" min="31" max="31"/>
-    <col width="4.7109375" customWidth="1" min="32" max="32"/>
-    <col width="4.7109375" customWidth="1" min="33" max="33"/>
-    <col width="12.7109375" customWidth="1" min="34" max="34"/>
-    <col width="13.7109375" customWidth="1" min="35" max="35"/>
-    <col width="13.7109375" customWidth="1" min="36" max="36"/>
+    <col width="22.7109375" customWidth="1" min="21" max="21"/>
+    <col width="27.7109375" customWidth="1" min="22" max="22"/>
+    <col width="21.7109375" customWidth="1" min="23" max="23"/>
+    <col width="26.7109375" customWidth="1" min="24" max="24"/>
+    <col width="25.7109375" customWidth="1" min="25" max="25"/>
+    <col width="30.7109375" customWidth="1" min="26" max="26"/>
+    <col width="13.7109375" customWidth="1" min="27" max="27"/>
+    <col width="5.7109375" customWidth="1" min="28" max="28"/>
+    <col width="8.7109375" customWidth="1" min="29" max="29"/>
+    <col width="11.7109375" customWidth="1" min="30" max="30"/>
+    <col width="6.7109375" customWidth="1" min="31" max="31"/>
+    <col width="10.7109375" customWidth="1" min="32" max="32"/>
+    <col width="10.7109375" customWidth="1" min="33" max="33"/>
+    <col width="10.7109375" customWidth="1" min="34" max="34"/>
+    <col width="16.7109375" customWidth="1" min="35" max="35"/>
+    <col width="12.7109375" customWidth="1" min="36" max="36"/>
     <col width="13.7109375" customWidth="1" min="37" max="37"/>
-    <col width="13.7109375" customWidth="1" min="38" max="38"/>
-    <col width="13.7109375" customWidth="1" min="39" max="39"/>
-    <col width="13.7109375" customWidth="1" min="40" max="40"/>
+    <col width="4.7109375" customWidth="1" min="38" max="38"/>
+    <col width="4.7109375" customWidth="1" min="39" max="39"/>
+    <col width="12.7109375" customWidth="1" min="40" max="40"/>
     <col width="13.7109375" customWidth="1" min="41" max="41"/>
     <col width="13.7109375" customWidth="1" min="42" max="42"/>
     <col width="13.7109375" customWidth="1" min="43" max="43"/>
     <col width="13.7109375" customWidth="1" min="44" max="44"/>
     <col width="13.7109375" customWidth="1" min="45" max="45"/>
-    <col width="15.7109375" customWidth="1" min="46" max="46"/>
+    <col width="13.7109375" customWidth="1" min="46" max="46"/>
     <col width="13.7109375" customWidth="1" min="47" max="47"/>
-    <col width="15.7109375" customWidth="1" min="48" max="48"/>
+    <col width="13.7109375" customWidth="1" min="48" max="48"/>
     <col width="13.7109375" customWidth="1" min="49" max="49"/>
-    <col width="16.7109375" customWidth="1" min="50" max="50"/>
-    <col width="15.7109375" customWidth="1" min="51" max="51"/>
-    <col width="16.7109375" customWidth="1" min="52" max="52"/>
-    <col width="15.7109375" customWidth="1" min="53" max="53"/>
-    <col width="16.7109375" customWidth="1" min="54" max="54"/>
-    <col width="16.7109375" customWidth="1" min="55" max="55"/>
+    <col width="13.7109375" customWidth="1" min="50" max="50"/>
+    <col width="13.7109375" customWidth="1" min="51" max="51"/>
+    <col width="15.7109375" customWidth="1" min="52" max="52"/>
+    <col width="13.7109375" customWidth="1" min="53" max="53"/>
+    <col width="15.7109375" customWidth="1" min="54" max="54"/>
+    <col width="13.7109375" customWidth="1" min="55" max="55"/>
+    <col width="16.7109375" customWidth="1" min="56" max="56"/>
+    <col width="15.7109375" customWidth="1" min="57" max="57"/>
+    <col width="16.7109375" customWidth="1" min="58" max="58"/>
+    <col width="15.7109375" customWidth="1" min="59" max="59"/>
+    <col width="16.7109375" customWidth="1" min="60" max="60"/>
+    <col width="16.7109375" customWidth="1" min="61" max="61"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8411,175 +8370,205 @@
       </c>
       <c r="U1" t="inlineStr">
         <is>
+          <t>WriteResponsePendingMB</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>WriteResponsePendingRecords</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>ReadResponsePendingMB</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>ReadResponsePendingRecords</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>WriteReadRequestPendingMB</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>WriteReadRequestPendingRecords</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
           <t>ReportSeconds</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>MB</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>Records</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>Records/Sec</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>MB/Sec</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>AvgLatency</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>MinLatency</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>MaxLatency</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>InvalidLatencies</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>LowerDiscard</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>HigherDiscard</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>SLC1</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>SLC2</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>Percentile_5</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>Percentile_10</t>
         </is>
       </c>
-      <c r="AJ1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>Percentile_20</t>
         </is>
       </c>
-      <c r="AK1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>Percentile_25</t>
         </is>
       </c>
-      <c r="AL1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>Percentile_30</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>Percentile_40</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>Percentile_50</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>Percentile_60</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
         <is>
           <t>Percentile_70</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AW1" t="inlineStr">
         <is>
           <t>Percentile_75</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AX1" t="inlineStr">
         <is>
           <t>Percentile_80</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AY1" t="inlineStr">
         <is>
           <t>Percentile_90</t>
         </is>
       </c>
-      <c r="AT1" t="inlineStr">
+      <c r="AZ1" t="inlineStr">
         <is>
           <t>Percentile_92.5</t>
         </is>
       </c>
-      <c r="AU1" t="inlineStr">
+      <c r="BA1" t="inlineStr">
         <is>
           <t>Percentile_95</t>
         </is>
       </c>
-      <c r="AV1" t="inlineStr">
+      <c r="BB1" t="inlineStr">
         <is>
           <t>Percentile_97.5</t>
         </is>
       </c>
-      <c r="AW1" t="inlineStr">
+      <c r="BC1" t="inlineStr">
         <is>
           <t>Percentile_99</t>
         </is>
       </c>
-      <c r="AX1" t="inlineStr">
+      <c r="BD1" t="inlineStr">
         <is>
           <t>Percentile_99.25</t>
         </is>
       </c>
-      <c r="AY1" t="inlineStr">
+      <c r="BE1" t="inlineStr">
         <is>
           <t>Percentile_99.5</t>
         </is>
       </c>
-      <c r="AZ1" t="inlineStr">
+      <c r="BF1" t="inlineStr">
         <is>
           <t>Percentile_99.75</t>
         </is>
       </c>
-      <c r="BA1" t="inlineStr">
+      <c r="BG1" t="inlineStr">
         <is>
           <t>Percentile_99.9</t>
         </is>
       </c>
-      <c r="BB1" t="inlineStr">
+      <c r="BH1" t="inlineStr">
         <is>
           <t>Percentile_99.95</t>
         </is>
       </c>
-      <c r="BC1" t="inlineStr">
+      <c r="BI1" t="inlineStr">
         <is>
           <t>Percentile_99.99</t>
         </is>
@@ -8645,121 +8634,139 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>56.7</v>
+        <v>54</v>
       </c>
       <c r="R2" t="n">
-        <v>5944439</v>
+        <v>5657150</v>
       </c>
       <c r="S2" t="n">
-        <v>1188530.7</v>
+        <v>1131088.1</v>
       </c>
       <c r="T2" t="n">
-        <v>11.33</v>
+        <v>10.79</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X2" t="n">
+        <v>21135</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
         <v>5</v>
       </c>
-      <c r="V2" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="W2" t="n">
-        <v>5929353</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1185514.5</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>766.8</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>664</v>
-      </c>
       <c r="AB2" t="n">
-        <v>3338699</v>
+        <v>53.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>5636015</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1126862.4</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>807.2</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>662</v>
       </c>
       <c r="AH2" t="n">
-        <v>676</v>
+        <v>2318595</v>
       </c>
       <c r="AI2" t="n">
-        <v>678</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>687</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>689</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>691</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>693</v>
+        <v>11</v>
       </c>
       <c r="AN2" t="n">
-        <v>696</v>
+        <v>707</v>
       </c>
       <c r="AO2" t="n">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="AP2" t="n">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="AQ2" t="n">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AR2" t="n">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="AS2" t="n">
-        <v>756</v>
+        <v>714</v>
       </c>
       <c r="AT2" t="n">
-        <v>799</v>
+        <v>716</v>
       </c>
       <c r="AU2" t="n">
-        <v>844</v>
+        <v>719</v>
       </c>
       <c r="AV2" t="n">
-        <v>874</v>
+        <v>727</v>
       </c>
       <c r="AW2" t="n">
-        <v>1033</v>
+        <v>741</v>
       </c>
       <c r="AX2" t="n">
-        <v>1046</v>
+        <v>747</v>
       </c>
       <c r="AY2" t="n">
-        <v>1150</v>
+        <v>774</v>
       </c>
       <c r="AZ2" t="n">
-        <v>7966</v>
+        <v>826</v>
       </c>
       <c r="BA2" t="n">
-        <v>20362</v>
+        <v>850</v>
       </c>
       <c r="BB2" t="n">
-        <v>22395</v>
+        <v>947</v>
       </c>
       <c r="BC2" t="n">
-        <v>31278</v>
+        <v>1196</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1272</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>1535</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>15269</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>23061</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>28692</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>44786</v>
       </c>
     </row>
     <row r="3">
@@ -8822,121 +8829,139 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>58.3</v>
+        <v>53.9</v>
       </c>
       <c r="R3" t="n">
-        <v>6115909</v>
+        <v>5651936</v>
       </c>
       <c r="S3" t="n">
-        <v>1222921.7</v>
+        <v>1130119.3</v>
       </c>
       <c r="T3" t="n">
-        <v>11.66</v>
+        <v>10.78</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X3" t="n">
+        <v>10008</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
         <v>5</v>
       </c>
-      <c r="V3" t="n">
-        <v>58.4</v>
-      </c>
-      <c r="W3" t="n">
-        <v>6122634</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1224266.4</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>751.1</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>652</v>
-      </c>
       <c r="AB3" t="n">
-        <v>2103522</v>
+        <v>54</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>5663063</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1132344.2</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>811.9</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>672</v>
       </c>
       <c r="AH3" t="n">
-        <v>676</v>
+        <v>2549676</v>
       </c>
       <c r="AI3" t="n">
-        <v>678</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>682</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>684</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>688</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>692</v>
+        <v>11</v>
       </c>
       <c r="AN3" t="n">
-        <v>695</v>
+        <v>709</v>
       </c>
       <c r="AO3" t="n">
-        <v>700</v>
+        <v>711</v>
       </c>
       <c r="AP3" t="n">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="AQ3" t="n">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="AR3" t="n">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="AS3" t="n">
+        <v>717</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>719</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>722</v>
+      </c>
+      <c r="AV3" t="n">
         <v>727</v>
       </c>
-      <c r="AT3" t="n">
-        <v>736</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>750</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>783</v>
-      </c>
       <c r="AW3" t="n">
-        <v>852</v>
+        <v>735</v>
       </c>
       <c r="AX3" t="n">
-        <v>880</v>
+        <v>751</v>
       </c>
       <c r="AY3" t="n">
-        <v>946</v>
+        <v>845</v>
       </c>
       <c r="AZ3" t="n">
-        <v>5651</v>
+        <v>854</v>
       </c>
       <c r="BA3" t="n">
-        <v>20325</v>
+        <v>865</v>
       </c>
       <c r="BB3" t="n">
-        <v>22219</v>
+        <v>951</v>
       </c>
       <c r="BC3" t="n">
-        <v>30634</v>
+        <v>1157</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>1212</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>1327</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>14972</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>22842</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>28769</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>46175</v>
       </c>
     </row>
     <row r="4">
@@ -8999,121 +9024,139 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.3</v>
+        <v>55.4</v>
       </c>
       <c r="R4" t="n">
-        <v>6004907</v>
+        <v>5811516</v>
       </c>
       <c r="S4" t="n">
-        <v>1200741.1</v>
+        <v>1161995.7</v>
       </c>
       <c r="T4" t="n">
-        <v>11.45</v>
+        <v>11.08</v>
       </c>
       <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="X4" t="n">
+        <v>8057</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
         <v>5</v>
       </c>
-      <c r="V4" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="W4" t="n">
-        <v>6007655</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1201290.6</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>766.2</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>669</v>
-      </c>
       <c r="AB4" t="n">
-        <v>1763003</v>
+        <v>55.4</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>5813467</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1162385.8</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>11.09</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>790.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>674</v>
       </c>
       <c r="AH4" t="n">
-        <v>692</v>
+        <v>2448512</v>
       </c>
       <c r="AI4" t="n">
-        <v>694</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>696</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>698</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>701</v>
+        <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>708</v>
+        <v>11</v>
       </c>
       <c r="AN4" t="n">
+        <v>710</v>
+      </c>
+      <c r="AO4" t="n">
         <v>711</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AP4" t="n">
+        <v>713</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>714</v>
+      </c>
+      <c r="AR4" t="n">
         <v>715</v>
       </c>
-      <c r="AP4" t="n">
-        <v>724</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>727</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>732</v>
-      </c>
       <c r="AS4" t="n">
-        <v>751</v>
+        <v>716</v>
       </c>
       <c r="AT4" t="n">
-        <v>759</v>
+        <v>717</v>
       </c>
       <c r="AU4" t="n">
-        <v>775</v>
+        <v>719</v>
       </c>
       <c r="AV4" t="n">
-        <v>811</v>
+        <v>721</v>
       </c>
       <c r="AW4" t="n">
-        <v>910</v>
+        <v>723</v>
       </c>
       <c r="AX4" t="n">
-        <v>934</v>
+        <v>725</v>
       </c>
       <c r="AY4" t="n">
-        <v>971</v>
+        <v>747</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2623</v>
+        <v>760</v>
       </c>
       <c r="BA4" t="n">
-        <v>20370</v>
+        <v>784</v>
       </c>
       <c r="BB4" t="n">
-        <v>22254</v>
+        <v>829</v>
       </c>
       <c r="BC4" t="n">
-        <v>30361</v>
+        <v>906</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>941</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>1119</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>14994</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>22890</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>28633</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>43639</v>
       </c>
     </row>
     <row r="5">
@@ -9176,121 +9219,139 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>57.3</v>
+        <v>55.5</v>
       </c>
       <c r="R5" t="n">
-        <v>6012174</v>
+        <v>5824832</v>
       </c>
       <c r="S5" t="n">
-        <v>1202164.1</v>
+        <v>1164733.1</v>
       </c>
       <c r="T5" t="n">
-        <v>11.46</v>
+        <v>11.11</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="X5" t="n">
+        <v>7444</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
         <v>5</v>
       </c>
-      <c r="V5" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="W5" t="n">
-        <v>6012009</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1202131.1</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>765.4</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>662</v>
-      </c>
       <c r="AB5" t="n">
-        <v>1901539</v>
+        <v>55.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>5825445</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1164855.7</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>11.11</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>787.7</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>682</v>
       </c>
       <c r="AH5" t="n">
-        <v>691</v>
+        <v>2457805</v>
       </c>
       <c r="AI5" t="n">
-        <v>693</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>696</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>698</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>701</v>
+        <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>707</v>
+        <v>10</v>
       </c>
       <c r="AN5" t="n">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AO5" t="n">
+        <v>711</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>712</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>713</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>714</v>
+      </c>
+      <c r="AS5" t="n">
         <v>715</v>
       </c>
-      <c r="AP5" t="n">
-        <v>723</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>726</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>729</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>746</v>
-      </c>
       <c r="AT5" t="n">
-        <v>754</v>
+        <v>717</v>
       </c>
       <c r="AU5" t="n">
-        <v>768</v>
+        <v>718</v>
       </c>
       <c r="AV5" t="n">
-        <v>794</v>
+        <v>720</v>
       </c>
       <c r="AW5" t="n">
-        <v>868</v>
+        <v>722</v>
       </c>
       <c r="AX5" t="n">
-        <v>911</v>
+        <v>724</v>
       </c>
       <c r="AY5" t="n">
-        <v>964</v>
+        <v>757</v>
       </c>
       <c r="AZ5" t="n">
-        <v>10563</v>
+        <v>779</v>
       </c>
       <c r="BA5" t="n">
-        <v>20366</v>
+        <v>804</v>
       </c>
       <c r="BB5" t="n">
-        <v>22153</v>
+        <v>845</v>
       </c>
       <c r="BC5" t="n">
-        <v>30514</v>
+        <v>929</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>1014</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>1150</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>6916</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>22513</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>28513</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>44180</v>
       </c>
     </row>
     <row r="6">
@@ -9353,121 +9414,139 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>57.5</v>
+        <v>56.2</v>
       </c>
       <c r="R6" t="n">
-        <v>6028754</v>
+        <v>5893197</v>
       </c>
       <c r="S6" t="n">
-        <v>1205509.6</v>
+        <v>1178403.7</v>
       </c>
       <c r="T6" t="n">
-        <v>11.5</v>
+        <v>11.24</v>
       </c>
       <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="X6" t="n">
+        <v>5395</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
         <v>5</v>
       </c>
-      <c r="V6" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="W6" t="n">
-        <v>6028908</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1205540.4</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>763.7</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>681</v>
-      </c>
       <c r="AB6" t="n">
-        <v>1908989</v>
+        <v>56.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>5895246</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1178813.4</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>11.24</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>778.7</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>674</v>
       </c>
       <c r="AH6" t="n">
-        <v>691</v>
+        <v>1945624</v>
       </c>
       <c r="AI6" t="n">
-        <v>693</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>695</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>697</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>699</v>
+        <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>706</v>
+        <v>9</v>
       </c>
       <c r="AN6" t="n">
+        <v>709</v>
+      </c>
+      <c r="AO6" t="n">
         <v>710</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AP6" t="n">
+        <v>712</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>713</v>
       </c>
-      <c r="AP6" t="n">
-        <v>722</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>725</v>
-      </c>
       <c r="AR6" t="n">
-        <v>729</v>
+        <v>714</v>
       </c>
       <c r="AS6" t="n">
-        <v>746</v>
+        <v>715</v>
       </c>
       <c r="AT6" t="n">
-        <v>754</v>
+        <v>716</v>
       </c>
       <c r="AU6" t="n">
-        <v>767</v>
+        <v>718</v>
       </c>
       <c r="AV6" t="n">
-        <v>795</v>
+        <v>720</v>
       </c>
       <c r="AW6" t="n">
-        <v>869</v>
+        <v>721</v>
       </c>
       <c r="AX6" t="n">
-        <v>910</v>
+        <v>723</v>
       </c>
       <c r="AY6" t="n">
-        <v>962</v>
+        <v>736</v>
       </c>
       <c r="AZ6" t="n">
-        <v>3639</v>
+        <v>763</v>
       </c>
       <c r="BA6" t="n">
-        <v>20376</v>
+        <v>783</v>
       </c>
       <c r="BB6" t="n">
-        <v>22087</v>
+        <v>826</v>
       </c>
       <c r="BC6" t="n">
-        <v>30264</v>
+        <v>904</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>929</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>1080</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>2771</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>21814</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>28047</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>41520</v>
       </c>
     </row>
     <row r="7">
@@ -9530,121 +9609,139 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.6</v>
+        <v>56</v>
       </c>
       <c r="R7" t="n">
-        <v>5725829</v>
+        <v>5872383</v>
       </c>
       <c r="S7" t="n">
-        <v>1144936.7</v>
+        <v>1174241.6</v>
       </c>
       <c r="T7" t="n">
-        <v>10.92</v>
+        <v>11.2</v>
       </c>
       <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="X7" t="n">
+        <v>4198</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
         <v>5</v>
       </c>
-      <c r="V7" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="W7" t="n">
-        <v>5725291</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1144829.1</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>10.92</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>804.1</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>677</v>
-      </c>
       <c r="AB7" t="n">
-        <v>3468414</v>
+        <v>56</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>5873580</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1174481</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>781.1</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>692</v>
       </c>
       <c r="AH7" t="n">
-        <v>695</v>
+        <v>1736484</v>
       </c>
       <c r="AI7" t="n">
-        <v>704</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>709</v>
+      </c>
+      <c r="AO7" t="n">
         <v>710</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AP7" t="n">
         <v>712</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AQ7" t="n">
+        <v>713</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>713</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>715</v>
+      </c>
+      <c r="AT7" t="n">
         <v>716</v>
       </c>
-      <c r="AM7" t="n">
-        <v>725</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>731</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>741</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>747</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>754</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>769</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>804</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>835</v>
-      </c>
       <c r="AU7" t="n">
-        <v>884</v>
+        <v>717</v>
       </c>
       <c r="AV7" t="n">
-        <v>938</v>
+        <v>719</v>
       </c>
       <c r="AW7" t="n">
-        <v>1104</v>
+        <v>721</v>
       </c>
       <c r="AX7" t="n">
-        <v>1147</v>
+        <v>724</v>
       </c>
       <c r="AY7" t="n">
-        <v>1264</v>
+        <v>749</v>
       </c>
       <c r="AZ7" t="n">
-        <v>7576</v>
+        <v>766</v>
       </c>
       <c r="BA7" t="n">
-        <v>20595</v>
+        <v>785</v>
       </c>
       <c r="BB7" t="n">
-        <v>24928</v>
+        <v>828</v>
       </c>
       <c r="BC7" t="n">
-        <v>36187</v>
+        <v>907</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>934</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>1090</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>3741</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>22085</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>28117</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>41342</v>
       </c>
     </row>
     <row r="8">
@@ -9707,121 +9804,139 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>53.4</v>
+        <v>54.9</v>
       </c>
       <c r="R8" t="n">
-        <v>5603245</v>
+        <v>5751889</v>
       </c>
       <c r="S8" t="n">
-        <v>1120422.3</v>
+        <v>1150147.6</v>
       </c>
       <c r="T8" t="n">
-        <v>10.69</v>
+        <v>10.97</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="X8" t="n">
+        <v>3554</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
         <v>5</v>
       </c>
-      <c r="V8" t="n">
-        <v>53.5</v>
-      </c>
-      <c r="W8" t="n">
-        <v>5606334</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1121040</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>821.1</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>665</v>
-      </c>
       <c r="AB8" t="n">
-        <v>2188998</v>
+        <v>54.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>5752533</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1150276.4</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>10.97</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>797.6</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>669</v>
       </c>
       <c r="AH8" t="n">
-        <v>710</v>
+        <v>1989197</v>
       </c>
       <c r="AI8" t="n">
-        <v>718</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>709</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>711</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>713</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>713</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>714</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>716</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>717</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>719</v>
+      </c>
+      <c r="AV8" t="n">
         <v>724</v>
       </c>
-      <c r="AK8" t="n">
-        <v>725</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>727</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>730</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>738</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>744</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>754</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>767</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="AW8" t="n">
+        <v>729</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>747</v>
+      </c>
+      <c r="AY8" t="n">
         <v>788</v>
       </c>
-      <c r="AS8" t="n">
-        <v>885</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>891</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>932</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>1068</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>1285</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>1389</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>1667</v>
-      </c>
       <c r="AZ8" t="n">
-        <v>4397</v>
+        <v>824</v>
       </c>
       <c r="BA8" t="n">
-        <v>20440</v>
+        <v>851</v>
       </c>
       <c r="BB8" t="n">
-        <v>24272</v>
+        <v>866</v>
       </c>
       <c r="BC8" t="n">
-        <v>34945</v>
+        <v>996</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>1111</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>1216</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>12747</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>22432</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>28390</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>43170</v>
       </c>
     </row>
     <row r="9">
@@ -9884,121 +9999,139 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>55.1</v>
+        <v>53.3</v>
       </c>
       <c r="R9" t="n">
-        <v>5774387</v>
+        <v>5593250</v>
       </c>
       <c r="S9" t="n">
-        <v>1154644.4</v>
+        <v>1118426.2</v>
       </c>
       <c r="T9" t="n">
-        <v>11.01</v>
+        <v>10.67</v>
       </c>
       <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="X9" t="n">
+        <v>3250</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
         <v>5</v>
       </c>
-      <c r="V9" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="W9" t="n">
-        <v>5774609</v>
-      </c>
-      <c r="X9" t="n">
-        <v>1154688.8</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>797.9</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>681</v>
-      </c>
       <c r="AB9" t="n">
-        <v>1820177</v>
+        <v>53.3</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>5593554</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1118487</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>10.67</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>820.3</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>699</v>
       </c>
       <c r="AH9" t="n">
-        <v>694</v>
+        <v>7274546</v>
       </c>
       <c r="AI9" t="n">
-        <v>699</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN9" t="n">
         <v>710</v>
       </c>
-      <c r="AK9" t="n">
-        <v>712</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>717</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>724</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>727</v>
-      </c>
       <c r="AO9" t="n">
-        <v>733</v>
+        <v>711</v>
       </c>
       <c r="AP9" t="n">
-        <v>744</v>
+        <v>713</v>
       </c>
       <c r="AQ9" t="n">
-        <v>752</v>
+        <v>714</v>
       </c>
       <c r="AR9" t="n">
-        <v>762</v>
+        <v>714</v>
       </c>
       <c r="AS9" t="n">
-        <v>845</v>
+        <v>716</v>
       </c>
       <c r="AT9" t="n">
-        <v>884</v>
+        <v>718</v>
       </c>
       <c r="AU9" t="n">
-        <v>898</v>
+        <v>720</v>
       </c>
       <c r="AV9" t="n">
-        <v>964</v>
+        <v>728</v>
       </c>
       <c r="AW9" t="n">
-        <v>1070</v>
+        <v>746</v>
       </c>
       <c r="AX9" t="n">
-        <v>1108</v>
+        <v>757</v>
       </c>
       <c r="AY9" t="n">
-        <v>1274</v>
+        <v>850</v>
       </c>
       <c r="AZ9" t="n">
-        <v>2868</v>
+        <v>856</v>
       </c>
       <c r="BA9" t="n">
-        <v>20220</v>
+        <v>878</v>
       </c>
       <c r="BB9" t="n">
-        <v>23331</v>
+        <v>999</v>
       </c>
       <c r="BC9" t="n">
-        <v>33769</v>
+        <v>1243</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>1333</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>1486</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>14931</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>22923</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>28668</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>46057</v>
       </c>
     </row>
     <row r="10">
@@ -10061,121 +10194,139 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.9</v>
+        <v>55.4</v>
       </c>
       <c r="R10" t="n">
-        <v>5863497</v>
+        <v>5812879</v>
       </c>
       <c r="S10" t="n">
-        <v>1172464.8</v>
+        <v>1162341.7</v>
       </c>
       <c r="T10" t="n">
-        <v>11.18</v>
+        <v>11.08</v>
       </c>
       <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="X10" t="n">
+        <v>4169</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
         <v>5</v>
       </c>
-      <c r="V10" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="W10" t="n">
-        <v>5862737</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1172312.8</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>786</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>682</v>
-      </c>
       <c r="AB10" t="n">
-        <v>1675597</v>
+        <v>55.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>5811960</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1162157.9</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>11.08</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>789.3</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>671</v>
       </c>
       <c r="AH10" t="n">
-        <v>698</v>
+        <v>1812808</v>
       </c>
       <c r="AI10" t="n">
-        <v>707</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>709</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>711</v>
+      </c>
+      <c r="AP10" t="n">
         <v>712</v>
       </c>
-      <c r="AK10" t="n">
-        <v>717</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>722</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>725</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>728</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>732</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>741</v>
-      </c>
       <c r="AQ10" t="n">
-        <v>745</v>
+        <v>713</v>
       </c>
       <c r="AR10" t="n">
+        <v>714</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>715</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>716</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>718</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>720</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>721</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>724</v>
+      </c>
+      <c r="AY10" t="n">
         <v>750</v>
       </c>
-      <c r="AS10" t="n">
-        <v>781</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>800</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>844</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>897</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>977</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>1019</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>1075</v>
-      </c>
       <c r="AZ10" t="n">
-        <v>1926</v>
+        <v>769</v>
       </c>
       <c r="BA10" t="n">
-        <v>20304</v>
+        <v>785</v>
       </c>
       <c r="BB10" t="n">
-        <v>23834</v>
+        <v>828</v>
       </c>
       <c r="BC10" t="n">
-        <v>34033</v>
+        <v>913</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>947</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>1124</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>14985</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>23140</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>28925</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>45266</v>
       </c>
     </row>
     <row r="11">
@@ -10238,121 +10389,139 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.4</v>
+        <v>55.5</v>
       </c>
       <c r="R11" t="n">
-        <v>5598132</v>
+        <v>5816430</v>
       </c>
       <c r="S11" t="n">
-        <v>1119402.4</v>
+        <v>1163053.2</v>
       </c>
       <c r="T11" t="n">
-        <v>10.68</v>
+        <v>11.09</v>
       </c>
       <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2899</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
         <v>5</v>
       </c>
-      <c r="V11" t="n">
-        <v>53.4</v>
-      </c>
-      <c r="W11" t="n">
-        <v>5598653</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1119506.6</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>823.9</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>681</v>
-      </c>
       <c r="AB11" t="n">
-        <v>2345614</v>
+        <v>55.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>5817700</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1163307.2</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>11.09</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>788.7</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>698</v>
       </c>
       <c r="AH11" t="n">
-        <v>708</v>
+        <v>2033426</v>
       </c>
       <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>709</v>
+      </c>
+      <c r="AO11" t="n">
         <v>711</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>722</v>
-      </c>
-      <c r="AK11" t="n">
+      <c r="AP11" t="n">
+        <v>712</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>713</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>714</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>715</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>716</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>718</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>720</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>721</v>
+      </c>
+      <c r="AX11" t="n">
         <v>724</v>
       </c>
-      <c r="AL11" t="n">
-        <v>726</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>730</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>738</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>745</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>756</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>770</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>789</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>888</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>906</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>980</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>1073</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>1231</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>1326</v>
-      </c>
       <c r="AY11" t="n">
-        <v>1571</v>
+        <v>750</v>
       </c>
       <c r="AZ11" t="n">
-        <v>3966</v>
+        <v>769</v>
       </c>
       <c r="BA11" t="n">
-        <v>20490</v>
+        <v>786</v>
       </c>
       <c r="BB11" t="n">
-        <v>25150</v>
+        <v>828</v>
       </c>
       <c r="BC11" t="n">
-        <v>35580</v>
+        <v>913</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>948</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>1125</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>14959</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>23095</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>28694</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>42588</v>
       </c>
     </row>
     <row r="12">
@@ -10415,121 +10584,139 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.4</v>
+        <v>54.6</v>
       </c>
       <c r="R12" t="n">
-        <v>5915421</v>
+        <v>5728553</v>
       </c>
       <c r="S12" t="n">
-        <v>1182845.6</v>
+        <v>1145481</v>
       </c>
       <c r="T12" t="n">
-        <v>11.28</v>
+        <v>10.92</v>
       </c>
       <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="X12" t="n">
+        <v>3477</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
         <v>5</v>
       </c>
-      <c r="V12" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="W12" t="n">
-        <v>5915692</v>
-      </c>
-      <c r="X12" t="n">
-        <v>1182899.7</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>11.28</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>778.6</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>667</v>
-      </c>
       <c r="AB12" t="n">
-        <v>2291131</v>
+        <v>54.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>5727975</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1145365.4</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>10.92</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>802.4</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>679</v>
       </c>
       <c r="AH12" t="n">
-        <v>692</v>
+        <v>22962280</v>
       </c>
       <c r="AI12" t="n">
-        <v>694</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>699</v>
+        <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>704</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>708</v>
+        <v>0</v>
       </c>
       <c r="AM12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>709</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>710</v>
+      </c>
+      <c r="AP12" t="n">
         <v>712</v>
       </c>
-      <c r="AN12" t="n">
-        <v>722</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>726</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>732</v>
-      </c>
       <c r="AQ12" t="n">
-        <v>738</v>
+        <v>713</v>
       </c>
       <c r="AR12" t="n">
-        <v>743</v>
+        <v>714</v>
       </c>
       <c r="AS12" t="n">
-        <v>765</v>
+        <v>715</v>
       </c>
       <c r="AT12" t="n">
-        <v>778</v>
+        <v>717</v>
       </c>
       <c r="AU12" t="n">
-        <v>796</v>
+        <v>718</v>
       </c>
       <c r="AV12" t="n">
-        <v>831</v>
+        <v>721</v>
       </c>
       <c r="AW12" t="n">
-        <v>916</v>
+        <v>723</v>
       </c>
       <c r="AX12" t="n">
-        <v>951</v>
+        <v>728</v>
       </c>
       <c r="AY12" t="n">
-        <v>1023</v>
+        <v>784</v>
       </c>
       <c r="AZ12" t="n">
-        <v>9553</v>
+        <v>816</v>
       </c>
       <c r="BA12" t="n">
-        <v>20417</v>
+        <v>853</v>
       </c>
       <c r="BB12" t="n">
-        <v>22708</v>
+        <v>932</v>
       </c>
       <c r="BC12" t="n">
-        <v>31276</v>
+        <v>1047</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>1064</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>1144</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>4070</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>21934</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>28089</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>41371</v>
       </c>
     </row>
     <row r="13">
@@ -10592,2245 +10779,139 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.2</v>
+        <v>55.6</v>
       </c>
       <c r="R13" t="n">
-        <v>6001793</v>
+        <v>5827675</v>
       </c>
       <c r="S13" t="n">
-        <v>1200118.4</v>
+        <v>1168346.7</v>
       </c>
       <c r="T13" t="n">
-        <v>11.45</v>
+        <v>11.14</v>
       </c>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>57.2</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>6002221</v>
+        <v>0.03</v>
       </c>
       <c r="X13" t="n">
-        <v>1200204</v>
+        <v>3280</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.45</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>766.4</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>682</v>
+        <v>4</v>
       </c>
       <c r="AB13" t="n">
-        <v>2016870</v>
+        <v>55.6</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>5827872</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1168386.2</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>11.14</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>785</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>699</v>
       </c>
       <c r="AH13" t="n">
-        <v>692</v>
+        <v>2479967</v>
       </c>
       <c r="AI13" t="n">
-        <v>695</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>702</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>706</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>708</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>710</v>
+        <v>9</v>
       </c>
       <c r="AN13" t="n">
+        <v>709</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>711</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>712</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>713</v>
       </c>
-      <c r="AO13" t="n">
-        <v>719</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>726</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>729</v>
-      </c>
       <c r="AR13" t="n">
-        <v>735</v>
+        <v>714</v>
       </c>
       <c r="AS13" t="n">
-        <v>753</v>
+        <v>715</v>
       </c>
       <c r="AT13" t="n">
-        <v>762</v>
+        <v>717</v>
       </c>
       <c r="AU13" t="n">
-        <v>775</v>
+        <v>718</v>
       </c>
       <c r="AV13" t="n">
-        <v>802</v>
+        <v>720</v>
       </c>
       <c r="AW13" t="n">
-        <v>873</v>
+        <v>722</v>
       </c>
       <c r="AX13" t="n">
-        <v>913</v>
+        <v>725</v>
       </c>
       <c r="AY13" t="n">
-        <v>963</v>
+        <v>756</v>
       </c>
       <c r="AZ13" t="n">
-        <v>1782</v>
+        <v>776</v>
       </c>
       <c r="BA13" t="n">
-        <v>20297</v>
+        <v>791</v>
       </c>
       <c r="BB13" t="n">
-        <v>22326</v>
+        <v>840</v>
       </c>
       <c r="BC13" t="n">
-        <v>30845</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>sbk</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Reading</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>NANOSECONDS</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="R14" t="n">
-        <v>6005277</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1200814.8</v>
-      </c>
-      <c r="T14" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
-      <c r="V14" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="W14" t="n">
-        <v>6005230</v>
-      </c>
-      <c r="X14" t="n">
-        <v>1200805.4</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>767</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>679</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>1942275</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>693</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>695</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>703</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>707</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>708</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>711</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>716</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>724</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>729</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>732</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>739</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>755</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>761</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>775</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>805</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>882</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>911</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>962</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>1789</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>20107</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>22117</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>31247</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>sbk</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Reading</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>NANOSECONDS</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="R15" t="n">
-        <v>6014285</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1202615.2</v>
-      </c>
-      <c r="T15" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
-      <c r="V15" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="W15" t="n">
-        <v>6013972</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1202552.6</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>766</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>681</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>2074279</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>692</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>694</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>698</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>703</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>707</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>710</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>716</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>723</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>727</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>729</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>733</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>753</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>759</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>774</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>801</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>867</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>910</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>961</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>1579</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>20273</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>22162</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>30855</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>sbk</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Reading</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>NANOSECONDS</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>57.2</v>
-      </c>
-      <c r="R16" t="n">
-        <v>6001747</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1200109.3</v>
-      </c>
-      <c r="T16" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
-      <c r="V16" t="n">
-        <v>57.2</v>
-      </c>
-      <c r="W16" t="n">
-        <v>6002965</v>
-      </c>
-      <c r="X16" t="n">
-        <v>1200352.8</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>767</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>678</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>1946434</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>692</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>694</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>700</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>705</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>708</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>712</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>719</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>724</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>728</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>731</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>735</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>755</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>764</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>784</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>825</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>916</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>939</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>997</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>1494</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>20139</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>22028</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>31079</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>sbk</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Reading</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>NANOSECONDS</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="R17" t="n">
-        <v>6006334</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1201026.5</v>
-      </c>
-      <c r="T17" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
-      <c r="V17" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="W17" t="n">
-        <v>6005112</v>
-      </c>
-      <c r="X17" t="n">
-        <v>1200782.2</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>767</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>681</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>1897566</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>692</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>694</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>697</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>701</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>706</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>709</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>712</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>719</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>725</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>727</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>730</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>747</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>756</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>769</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>795</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>867</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>910</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>962</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>2165</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>20354</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>22584</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>32586</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>sbk</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Reading</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>NANOSECONDS</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="R18" t="n">
-        <v>6018858</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1203530.9</v>
-      </c>
-      <c r="T18" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
-      <c r="V18" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="W18" t="n">
-        <v>6019386</v>
-      </c>
-      <c r="X18" t="n">
-        <v>1203636.4</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>764.4</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>682</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>2027461</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>692</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>694</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>699</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>704</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>707</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>710</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>712</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>718</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>725</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>728</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>731</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>749</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>756</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>770</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>797</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>874</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>914</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>962</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>1784</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>20265</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>22220</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>31455</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>sbk</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Reading</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>NANOSECONDS</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="R19" t="n">
-        <v>6021481</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1204055.3</v>
-      </c>
-      <c r="T19" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
-      <c r="V19" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="W19" t="n">
-        <v>6020965</v>
-      </c>
-      <c r="X19" t="n">
-        <v>1203952.1</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>765.1</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>676</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>2055014</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>692</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>694</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>699</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>704</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>707</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>710</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>714</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>723</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>727</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>730</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>734</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>753</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>760</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>775</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>801</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>867</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>906</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>956</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>1580</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>20230</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>22191</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>30788</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>sbk</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Reading</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>NANOSECONDS</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="R20" t="n">
-        <v>6014280</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1202615.5</v>
-      </c>
-      <c r="T20" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
-      <c r="V20" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="W20" t="n">
-        <v>6013786</v>
-      </c>
-      <c r="X20" t="n">
-        <v>1202516.7</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>765.8</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>681</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>1802411</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>692</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>694</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>699</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>705</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>707</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>710</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>713</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>719</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>725</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>728</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>732</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>751</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>758</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>773</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>803</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>892</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>930</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>991</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>1795</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>20235</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>22122</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>31834</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>sbk</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Reading</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>NANOSECONDS</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="R21" t="n">
-        <v>6050363</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1209829.6</v>
-      </c>
-      <c r="T21" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
-      <c r="V21" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="W21" t="n">
-        <v>6052231</v>
-      </c>
-      <c r="X21" t="n">
-        <v>1210203.2</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>760</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>680</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>1779291</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>692</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>693</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>697</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>700</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>705</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>709</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>711</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>715</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>723</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>725</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>728</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>745</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>754</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>769</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>795</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>865</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>910</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>955</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>1429</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>20244</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>22064</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>30737</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>sbk</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Reading</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>NANOSECONDS</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="R22" t="n">
-        <v>6010891</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1201937.5</v>
-      </c>
-      <c r="T22" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
-      <c r="V22" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="W22" t="n">
-        <v>6010118</v>
-      </c>
-      <c r="X22" t="n">
-        <v>1201783</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>766.9</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>671</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>2008911</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>692</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>694</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>698</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>704</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>707</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>710</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>714</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>722</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>727</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>730</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>736</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>755</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>764</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>779</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>813</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>914</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>933</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>974</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>1602</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>20206</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>22172</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>31051</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>sbk</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Reading</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>NANOSECONDS</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="R23" t="n">
-        <v>6029763</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1205710.9</v>
-      </c>
-      <c r="T23" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
-      <c r="V23" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="W23" t="n">
-        <v>6029695</v>
-      </c>
-      <c r="X23" t="n">
-        <v>1205697.3</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>763</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>680</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>2084512</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>692</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>694</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>698</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>703</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>706</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>709</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>711</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>716</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>724</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>727</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>731</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>748</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>758</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>772</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>798</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>875</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>914</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>960</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>1623</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>20278</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>22214</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>31481</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>sbk</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Reading</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>NANOSECONDS</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="R24" t="n">
-        <v>6018088</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1203375.2</v>
-      </c>
-      <c r="T24" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
-      <c r="V24" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="W24" t="n">
-        <v>6017620</v>
-      </c>
-      <c r="X24" t="n">
-        <v>1203281.6</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>765.3</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>679</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>2077803</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>691</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>693</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>696</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>698</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>702</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>707</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>710</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>715</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>723</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>726</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>730</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>749</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>756</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>771</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>804</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>890</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>918</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>969</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>2834</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>20305</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>22182</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>30748</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>sbk</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Reading</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>NANOSECONDS</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="R25" t="n">
-        <v>5956827</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1197044.9</v>
-      </c>
-      <c r="T25" t="n">
-        <v>11.42</v>
-      </c>
-      <c r="U25" t="n">
-        <v>4</v>
-      </c>
-      <c r="V25" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="W25" t="n">
-        <v>5957343</v>
-      </c>
-      <c r="X25" t="n">
-        <v>1197148.6</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>11.42</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>769.2</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>681</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>2108811</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>692</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>694</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>700</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>705</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>708</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>711</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>717</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>725</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>729</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>732</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>738</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>756</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>764</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>781</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>819</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>892</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>923</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>976</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>1787</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>20226</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>22251</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>31593</v>
+        <v>919</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>968</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>1121</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>4348</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>22051</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>28217</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>41753</v>
       </c>
     </row>
   </sheetData>
@@ -13034,7 +11115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC2"/>
+  <dimension ref="A1:BI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13062,41 +11143,47 @@
     <col width="18.7109375" customWidth="1" min="18" max="18"/>
     <col width="22.7109375" customWidth="1" min="19" max="19"/>
     <col width="17.7109375" customWidth="1" min="20" max="20"/>
-    <col width="13.7109375" customWidth="1" min="21" max="21"/>
-    <col width="7.7109375" customWidth="1" min="22" max="22"/>
-    <col width="10.7109375" customWidth="1" min="23" max="23"/>
-    <col width="11.7109375" customWidth="1" min="24" max="24"/>
-    <col width="6.7109375" customWidth="1" min="25" max="25"/>
-    <col width="10.7109375" customWidth="1" min="26" max="26"/>
-    <col width="10.7109375" customWidth="1" min="27" max="27"/>
-    <col width="10.7109375" customWidth="1" min="28" max="28"/>
-    <col width="16.7109375" customWidth="1" min="29" max="29"/>
-    <col width="12.7109375" customWidth="1" min="30" max="30"/>
-    <col width="13.7109375" customWidth="1" min="31" max="31"/>
-    <col width="4.7109375" customWidth="1" min="32" max="32"/>
-    <col width="4.7109375" customWidth="1" min="33" max="33"/>
-    <col width="12.7109375" customWidth="1" min="34" max="34"/>
-    <col width="13.7109375" customWidth="1" min="35" max="35"/>
-    <col width="13.7109375" customWidth="1" min="36" max="36"/>
+    <col width="22.7109375" customWidth="1" min="21" max="21"/>
+    <col width="27.7109375" customWidth="1" min="22" max="22"/>
+    <col width="21.7109375" customWidth="1" min="23" max="23"/>
+    <col width="26.7109375" customWidth="1" min="24" max="24"/>
+    <col width="25.7109375" customWidth="1" min="25" max="25"/>
+    <col width="30.7109375" customWidth="1" min="26" max="26"/>
+    <col width="13.7109375" customWidth="1" min="27" max="27"/>
+    <col width="6.7109375" customWidth="1" min="28" max="28"/>
+    <col width="9.7109375" customWidth="1" min="29" max="29"/>
+    <col width="11.7109375" customWidth="1" min="30" max="30"/>
+    <col width="6.7109375" customWidth="1" min="31" max="31"/>
+    <col width="10.7109375" customWidth="1" min="32" max="32"/>
+    <col width="10.7109375" customWidth="1" min="33" max="33"/>
+    <col width="10.7109375" customWidth="1" min="34" max="34"/>
+    <col width="16.7109375" customWidth="1" min="35" max="35"/>
+    <col width="12.7109375" customWidth="1" min="36" max="36"/>
     <col width="13.7109375" customWidth="1" min="37" max="37"/>
-    <col width="13.7109375" customWidth="1" min="38" max="38"/>
-    <col width="13.7109375" customWidth="1" min="39" max="39"/>
-    <col width="13.7109375" customWidth="1" min="40" max="40"/>
+    <col width="4.7109375" customWidth="1" min="38" max="38"/>
+    <col width="4.7109375" customWidth="1" min="39" max="39"/>
+    <col width="12.7109375" customWidth="1" min="40" max="40"/>
     <col width="13.7109375" customWidth="1" min="41" max="41"/>
     <col width="13.7109375" customWidth="1" min="42" max="42"/>
     <col width="13.7109375" customWidth="1" min="43" max="43"/>
     <col width="13.7109375" customWidth="1" min="44" max="44"/>
     <col width="13.7109375" customWidth="1" min="45" max="45"/>
-    <col width="15.7109375" customWidth="1" min="46" max="46"/>
+    <col width="13.7109375" customWidth="1" min="46" max="46"/>
     <col width="13.7109375" customWidth="1" min="47" max="47"/>
-    <col width="15.7109375" customWidth="1" min="48" max="48"/>
+    <col width="13.7109375" customWidth="1" min="48" max="48"/>
     <col width="13.7109375" customWidth="1" min="49" max="49"/>
-    <col width="16.7109375" customWidth="1" min="50" max="50"/>
-    <col width="15.7109375" customWidth="1" min="51" max="51"/>
-    <col width="16.7109375" customWidth="1" min="52" max="52"/>
-    <col width="15.7109375" customWidth="1" min="53" max="53"/>
-    <col width="16.7109375" customWidth="1" min="54" max="54"/>
-    <col width="16.7109375" customWidth="1" min="55" max="55"/>
+    <col width="13.7109375" customWidth="1" min="50" max="50"/>
+    <col width="13.7109375" customWidth="1" min="51" max="51"/>
+    <col width="15.7109375" customWidth="1" min="52" max="52"/>
+    <col width="13.7109375" customWidth="1" min="53" max="53"/>
+    <col width="15.7109375" customWidth="1" min="54" max="54"/>
+    <col width="13.7109375" customWidth="1" min="55" max="55"/>
+    <col width="16.7109375" customWidth="1" min="56" max="56"/>
+    <col width="15.7109375" customWidth="1" min="57" max="57"/>
+    <col width="16.7109375" customWidth="1" min="58" max="58"/>
+    <col width="15.7109375" customWidth="1" min="59" max="59"/>
+    <col width="16.7109375" customWidth="1" min="60" max="60"/>
+    <col width="16.7109375" customWidth="1" min="61" max="61"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -13202,175 +11289,205 @@
       </c>
       <c r="U1" t="inlineStr">
         <is>
+          <t>WriteResponsePendingMB</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>WriteResponsePendingRecords</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>ReadResponsePendingMB</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>ReadResponsePendingRecords</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>WriteReadRequestPendingMB</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>WriteReadRequestPendingRecords</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
           <t>ReportSeconds</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>MB</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>Records</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>Records/Sec</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>MB/Sec</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>AvgLatency</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>MinLatency</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>MaxLatency</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>InvalidLatencies</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>LowerDiscard</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>HigherDiscard</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>SLC1</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>SLC2</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>Percentile_5</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>Percentile_10</t>
         </is>
       </c>
-      <c r="AJ1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>Percentile_20</t>
         </is>
       </c>
-      <c r="AK1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>Percentile_25</t>
         </is>
       </c>
-      <c r="AL1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>Percentile_30</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>Percentile_40</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>Percentile_50</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>Percentile_60</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
         <is>
           <t>Percentile_70</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AW1" t="inlineStr">
         <is>
           <t>Percentile_75</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AX1" t="inlineStr">
         <is>
           <t>Percentile_80</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AY1" t="inlineStr">
         <is>
           <t>Percentile_90</t>
         </is>
       </c>
-      <c r="AT1" t="inlineStr">
+      <c r="AZ1" t="inlineStr">
         <is>
           <t>Percentile_92.5</t>
         </is>
       </c>
-      <c r="AU1" t="inlineStr">
+      <c r="BA1" t="inlineStr">
         <is>
           <t>Percentile_95</t>
         </is>
       </c>
-      <c r="AV1" t="inlineStr">
+      <c r="BB1" t="inlineStr">
         <is>
           <t>Percentile_97.5</t>
         </is>
       </c>
-      <c r="AW1" t="inlineStr">
+      <c r="BC1" t="inlineStr">
         <is>
           <t>Percentile_99</t>
         </is>
       </c>
-      <c r="AX1" t="inlineStr">
+      <c r="BD1" t="inlineStr">
         <is>
           <t>Percentile_99.25</t>
         </is>
       </c>
-      <c r="AY1" t="inlineStr">
+      <c r="BE1" t="inlineStr">
         <is>
           <t>Percentile_99.5</t>
         </is>
       </c>
-      <c r="AZ1" t="inlineStr">
+      <c r="BF1" t="inlineStr">
         <is>
           <t>Percentile_99.75</t>
         </is>
       </c>
-      <c r="BA1" t="inlineStr">
+      <c r="BG1" t="inlineStr">
         <is>
           <t>Percentile_99.9</t>
         </is>
       </c>
-      <c r="BB1" t="inlineStr">
+      <c r="BH1" t="inlineStr">
         <is>
           <t>Percentile_99.95</t>
         </is>
       </c>
-      <c r="BC1" t="inlineStr">
+      <c r="BI1" t="inlineStr">
         <is>
           <t>Percentile_99.99</t>
         </is>
@@ -13378,7 +11495,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -13436,121 +11553,139 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1361.3</v>
+        <v>660.4</v>
       </c>
       <c r="R2" t="n">
-        <v>142739034</v>
+        <v>69242894</v>
       </c>
       <c r="S2" t="n">
-        <v>1189491.7</v>
+        <v>1154048.2</v>
       </c>
       <c r="T2" t="n">
-        <v>11.34</v>
+        <v>11.01</v>
       </c>
       <c r="U2" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1361.2</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>142734519</v>
+        <v>0.04</v>
       </c>
       <c r="X2" t="n">
-        <v>1189454.1</v>
+        <v>4484</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.34</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>773.7</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>652</v>
+        <v>60</v>
       </c>
       <c r="AB2" t="n">
-        <v>3468414</v>
+        <v>660.3</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>69238410</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1153973.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>11.01</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>794.9</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>662</v>
       </c>
       <c r="AH2" t="n">
-        <v>691</v>
+        <v>22962280</v>
       </c>
       <c r="AI2" t="n">
-        <v>693</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>698</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>703</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>707</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>710</v>
+        <v>10</v>
       </c>
       <c r="AN2" t="n">
+        <v>709</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>711</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>712</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>713</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>714</v>
+      </c>
+      <c r="AS2" t="n">
         <v>715</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AT2" t="n">
+        <v>717</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>718</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>721</v>
+      </c>
+      <c r="AW2" t="n">
         <v>724</v>
       </c>
-      <c r="AP2" t="n">
-        <v>729</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>733</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>740</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>762</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>777</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>801</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>881</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>975</v>
-      </c>
       <c r="AX2" t="n">
-        <v>1037</v>
+        <v>728</v>
       </c>
       <c r="AY2" t="n">
-        <v>1104</v>
+        <v>770</v>
       </c>
       <c r="AZ2" t="n">
-        <v>2457</v>
+        <v>789</v>
       </c>
       <c r="BA2" t="n">
-        <v>20306</v>
+        <v>833</v>
       </c>
       <c r="BB2" t="n">
-        <v>22576</v>
+        <v>866</v>
       </c>
       <c r="BC2" t="n">
-        <v>32007</v>
+        <v>1032</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1116</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>1246</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>11934</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>22570</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>28497</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>43229</v>
       </c>
     </row>
   </sheetData>
@@ -13776,7 +11911,7 @@
     <row r="8">
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>SBK Version : 2.0-pre</t>
+          <t>SBK Version : 3.0-pre1</t>
         </is>
       </c>
     </row>

--- a/samples/charts/sbk-file-read.xlsx
+++ b/samples/charts/sbk-file-read.xlsx
@@ -47,14 +47,16 @@
     <sheet name="Percentile_99.9" sheetId="39" state="visible" r:id="rId39"/>
     <sheet name="Percentile_99.95" sheetId="40" state="visible" r:id="rId40"/>
     <sheet name="Percentile_99.99" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="Total_Percentiles_1" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="Total_Percentiles_2" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="Total_MB" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="Total_Throughput_MB" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="Total_Throughput_Records" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="Total_Min_Latency" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="Total_Avg_Latency" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="Total_Max_Latency" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="Write_Read_Records" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="Write_Read_MB" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="Total_Percentiles_1" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="Total_Percentiles_2" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="Total_MB" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="Total_Throughput_MB" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="Total_Throughput_Records" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="Total_Min_Latency" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="Total_Avg_Latency" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="Total_Max_Latency" sheetId="51" state="visible" r:id="rId51"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4166,6 +4168,739 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:t>Write and Read Records Variations</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>R1-FILE-WriteRequestRecords</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$N$2:$N$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>R1-FILE-ReadRequestRecords</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$R$2:$R$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <v>R1-FILE-WriteResponsePendingRecords</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$V$2:$V$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <v>R1-FILE-ReadResponsePendingRecords</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$X$2:$X$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <v>R1-FILE-WriteReadRequestPendingRecords</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$Z$2:$Z$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <v>R1-FILE-Records</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$AC$2:$AC$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Intervals</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Write and Read Records</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Write and Read MBs Variations</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>R1-FILE-WriteRequestMB</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$M$2:$M$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>R1-FILE-ReadRequestMB</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$Q$2:$Q$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <v>R1-FILE-WriteResponsePendingMB</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$U$2:$U$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <v>R1-FILE-ReadResponsePendingMB</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$W$2:$W$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <v>R1-FILE-WriteReadRequestPendingMB</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$Y$2:$Y$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <v>R1-FILE-Records</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$AC$2:$AC$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Intervals</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Write and Read MBs</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Latency Variations</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>R1-FILE-Percentile_5</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$AN$2:$AN$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>R1-FILE-Percentile_10</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$AO$2:$AO$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <v>R1-FILE-Percentile_20</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$AP$2:$AP$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <v>R1-FILE-Percentile_25</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$AQ$2:$AQ$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <v>R1-FILE-Percentile_30</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$AR$2:$AR$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <v>R1-FILE-Percentile_40</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$AS$2:$AS$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="6"/>
+          <order val="6"/>
+          <tx>
+            <v>R1-FILE-Percentile_50</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$AT$2:$AT$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Intervals</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Latency time in NANOSECONDS</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
               <a:t>Total Percentiles</a:t>
             </a:r>
           </a:p>
@@ -4270,7 +5005,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -4386,7 +5121,790 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Total Mega Bytes Reading</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>T1-FILE-WriteRequestMB</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'T1'!$M$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>T1-FILE-ReadRequestMB</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'T1'!$Q$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <v>T1-FILE-WriteResponsePendingMB</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'T1'!$U$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <v>T1-FILE-ReadResponsePendingMB</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'T1'!$W$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <v>T1-FILE-WriteReadRequestPendingMB</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'T1'!$Y$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <v>T1-FILE-MB</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'T1'!$AB$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Reading</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>MB</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Total Throughput Variations in Mega Bytes / Seconds</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>T1-FILE-WriteRequestMB/Sec</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'T1'!$P$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>T1-FILE-ReadRequestMB/Sec</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'T1'!$T$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <v>T1-FILE-MB/Sec</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'T1'!$AE$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Reading</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Total Throughput in MB/Sec</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Total Throughput Variations in Records / Seconds</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>T1-FILE-WriteRequestRecords/Sec</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'T1'!$O$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>T1-FILE-ReadRequestRecords/Sec</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'T1'!$S$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <v>T1-FILE-Records/Sec</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'T1'!$AD$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Reading</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Total Throughput in Records/Sec</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Total Min Latency Comparison</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>T1-FILE-MinLatency</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'T1'!$AG$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Reading</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Total Min Latency</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Total Average Latency Comparison</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>T1-FILE-AvgLatency</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'T1'!$AF$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Reading</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Total Average Latency</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Total Max Latency Comparison</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>T1-FILE-MaxLatency</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'T1'!$AH$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Reading</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Total Max Latency</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -4411,7 +5929,7 @@
           <idx val="0"/>
           <order val="0"/>
           <tx>
-            <v>R1-FILE-Percentile_5</v>
+            <v>R1-FILE-AvgLatency</v>
           </tx>
           <spPr>
             <a:ln>
@@ -4428,138 +5946,13 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AN$2:$AN$13</f>
+              <f>'R1'!$AF$2:$AF$13</f>
             </numRef>
           </val>
         </ser>
         <ser>
           <idx val="1"/>
           <order val="1"/>
-          <tx>
-            <v>R1-FILE-Percentile_10</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'R1'!$AO$2:$AO$13</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <v>R1-FILE-Percentile_20</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'R1'!$AP$2:$AP$13</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <v>R1-FILE-Percentile_25</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'R1'!$AQ$2:$AQ$13</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="4"/>
-          <order val="4"/>
-          <tx>
-            <v>R1-FILE-Percentile_30</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'R1'!$AR$2:$AR$13</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="5"/>
-          <order val="5"/>
-          <tx>
-            <v>R1-FILE-Percentile_40</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'R1'!$AS$2:$AS$13</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="6"/>
-          <order val="6"/>
           <tx>
             <v>R1-FILE-Percentile_50</v>
           </tx>
@@ -4647,739 +6040,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Total Mega Bytes Reading</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <v>T1-FILE-WriteRequestMB</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'T1'!$M$2</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <v>T1-FILE-ReadRequestMB</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'T1'!$Q$2</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <v>T1-FILE-MB</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'T1'!$AB$2</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Reading</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>MB</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Total Throughput Variations in Mega Bytes / Seconds</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <v>T1-FILE-WriteRequestMB/Sec</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'T1'!$P$2</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <v>T1-FILE-ReadRequestMB/Sec</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'T1'!$T$2</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <v>T1-FILE-MB/Sec</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'T1'!$AE$2</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Reading</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Total Throughput in MB/Sec</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Total Throughput Variations in Records / Seconds</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <v>T1-FILE-WriteRequestRecords/Sec</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'T1'!$O$2</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <v>T1-FILE-ReadRequestRecords/Sec</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'T1'!$S$2</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <v>T1-FILE-Records/Sec</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'T1'!$AD$2</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Reading</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Total Throughput in Records/Sec</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Total Min Latency Comparison</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <v>T1-FILE-MinLatency</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'T1'!$AG$2</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Reading</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Total Min Latency</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Total Average Latency Comparison</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <v>T1-FILE-AvgLatency</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'T1'!$AF$2</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Reading</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Total Average Latency</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Total Max Latency Comparison</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <v>T1-FILE-MaxLatency</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <val>
-            <numRef>
-              <f>'T1'!$AH$2</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Reading</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Total Max Latency</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -5404,7 +6065,7 @@
           <idx val="0"/>
           <order val="0"/>
           <tx>
-            <v>R1-FILE-AvgLatency</v>
+            <v>R1-FILE-Percentile_50</v>
           </tx>
           <spPr>
             <a:ln>
@@ -5421,13 +6082,846 @@
           </marker>
           <val>
             <numRef>
-              <f>'R1'!$AF$2:$AF$13</f>
+              <f>'R1'!$AT$2:$AT$13</f>
             </numRef>
           </val>
         </ser>
         <ser>
           <idx val="1"/>
           <order val="1"/>
+          <tx>
+            <v>R1-FILE-Percentile_60</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$AU$2:$AU$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <v>R1-FILE-Percentile_70</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$AV$2:$AV$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <v>R1-FILE-Percentile_75</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$AW$2:$AW$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <v>R1-FILE-Percentile_80</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$AX$2:$AX$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <v>R1-FILE-Percentile_90</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$AY$2:$AY$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Intervals</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Latency time in NANOSECONDS</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Latency Variations</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>R1-FILE-Percentile_92.5</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$AZ$2:$AZ$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>R1-FILE-Percentile_95</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$BA$2:$BA$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <v>R1-FILE-Percentile_97.5</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$BB$2:$BB$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <v>R1-FILE-Percentile_99</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$BC$2:$BC$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <v>R1-FILE-Percentile_99.25</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$BD$2:$BD$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <v>R1-FILE-Percentile_99.5</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$BE$2:$BE$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="6"/>
+          <order val="6"/>
+          <tx>
+            <v>R1-FILE-Percentile_99.75</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$BF$2:$BF$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="7"/>
+          <order val="7"/>
+          <tx>
+            <v>R1-FILE-Percentile_99.9</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$BG$2:$BG$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="8"/>
+          <order val="8"/>
+          <tx>
+            <v>R1-FILE-Percentile_99.95</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$BH$2:$BH$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="9"/>
+          <order val="9"/>
+          <tx>
+            <v>R1-FILE-Percentile_99.99</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$BI$2:$BI$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Intervals</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Latency time in NANOSECONDS</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Latency Variations</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>R1-FILE-MinLatency</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$AG$2:$AG$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>R1-FILE-Percentile_5</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$AN$2:$AN$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Intervals</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Latency time in NANOSECONDS</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Latency Variations</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>R1-FILE-Percentile_5</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$AN$2:$AN$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>R1-FILE-Percentile_10</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$AO$2:$AO$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <v>R1-FILE-Percentile_20</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$AP$2:$AP$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <v>R1-FILE-Percentile_25</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$AQ$2:$AQ$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <v>R1-FILE-Percentile_30</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$AR$2:$AR$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <v>R1-FILE-Percentile_40</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'R1'!$AS$2:$AS$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="6"/>
+          <order val="6"/>
           <tx>
             <v>R1-FILE-Percentile_50</v>
           </tx>
@@ -5515,975 +7009,6 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Latency Variations</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <lineChart>
-        <grouping val="standard"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <v>R1-FILE-Percentile_50</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'R1'!$AT$2:$AT$13</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <v>R1-FILE-Percentile_60</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'R1'!$AU$2:$AU$13</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <v>R1-FILE-Percentile_70</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'R1'!$AV$2:$AV$13</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <v>R1-FILE-Percentile_75</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'R1'!$AW$2:$AW$13</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="4"/>
-          <order val="4"/>
-          <tx>
-            <v>R1-FILE-Percentile_80</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'R1'!$AX$2:$AX$13</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="5"/>
-          <order val="5"/>
-          <tx>
-            <v>R1-FILE-Percentile_90</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'R1'!$AY$2:$AY$13</f>
-            </numRef>
-          </val>
-        </ser>
-        <axId val="10"/>
-        <axId val="100"/>
-      </lineChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Intervals</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Latency time in NANOSECONDS</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Latency Variations</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <lineChart>
-        <grouping val="standard"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <v>R1-FILE-Percentile_92.5</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'R1'!$AZ$2:$AZ$13</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <v>R1-FILE-Percentile_95</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'R1'!$BA$2:$BA$13</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <v>R1-FILE-Percentile_97.5</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'R1'!$BB$2:$BB$13</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <v>R1-FILE-Percentile_99</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'R1'!$BC$2:$BC$13</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="4"/>
-          <order val="4"/>
-          <tx>
-            <v>R1-FILE-Percentile_99.25</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'R1'!$BD$2:$BD$13</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="5"/>
-          <order val="5"/>
-          <tx>
-            <v>R1-FILE-Percentile_99.5</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'R1'!$BE$2:$BE$13</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="6"/>
-          <order val="6"/>
-          <tx>
-            <v>R1-FILE-Percentile_99.75</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'R1'!$BF$2:$BF$13</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="7"/>
-          <order val="7"/>
-          <tx>
-            <v>R1-FILE-Percentile_99.9</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'R1'!$BG$2:$BG$13</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="8"/>
-          <order val="8"/>
-          <tx>
-            <v>R1-FILE-Percentile_99.95</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'R1'!$BH$2:$BH$13</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="9"/>
-          <order val="9"/>
-          <tx>
-            <v>R1-FILE-Percentile_99.99</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'R1'!$BI$2:$BI$13</f>
-            </numRef>
-          </val>
-        </ser>
-        <axId val="10"/>
-        <axId val="100"/>
-      </lineChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Intervals</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Latency time in NANOSECONDS</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Latency Variations</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <lineChart>
-        <grouping val="standard"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <v>R1-FILE-MinLatency</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'R1'!$AG$2:$AG$13</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <v>R1-FILE-Percentile_5</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'R1'!$AN$2:$AN$13</f>
-            </numRef>
-          </val>
-        </ser>
-        <axId val="10"/>
-        <axId val="100"/>
-      </lineChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Intervals</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Latency time in NANOSECONDS</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Latency Variations</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <lineChart>
-        <grouping val="standard"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <v>R1-FILE-Percentile_5</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'R1'!$AN$2:$AN$13</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <v>R1-FILE-Percentile_10</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'R1'!$AO$2:$AO$13</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <v>R1-FILE-Percentile_20</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'R1'!$AP$2:$AP$13</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <v>R1-FILE-Percentile_25</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'R1'!$AQ$2:$AQ$13</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="4"/>
-          <order val="4"/>
-          <tx>
-            <v>R1-FILE-Percentile_30</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'R1'!$AR$2:$AR$13</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="5"/>
-          <order val="5"/>
-          <tx>
-            <v>R1-FILE-Percentile_40</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'R1'!$AS$2:$AS$13</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="6"/>
-          <order val="6"/>
-          <tx>
-            <v>R1-FILE-Percentile_50</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'R1'!$AT$2:$AT$13</f>
-            </numRef>
-          </val>
-        </ser>
-        <axId val="10"/>
-        <axId val="100"/>
-      </lineChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Intervals</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Latency time in NANOSECONDS</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
@@ -7538,6 +8063,60 @@
 </file>
 
 <file path=xl/drawings/drawing45.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="18000000" cy="9000000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing46.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="18000000" cy="9000000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing47.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -12160,6 +12739,44 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/samples/charts/sbk-file-read.xlsx
+++ b/samples/charts/sbk-file-read.xlsx
@@ -7010,29 +7010,48 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor editAs="oneCell">
     <from>
-      <col>4</col>
+      <col>10</col>
       <colOff>0</colOff>
-      <row>14</row>
+      <row>6</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="18000000" cy="9000000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
+    <to>
+      <col>19</col>
+      <colOff>285750</colOff>
+      <row>36</row>
+      <rowOff>71438</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Picture 1" descr="sbk-logo.png"/>
+        <cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </cNvPicPr>
+      </nvPicPr>
+      <blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="1143000"/>
+          <a:ext cx="5772150" cy="5786438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
     <clientData/>
-  </oneCellAnchor>
+  </twoCellAnchor>
 </wsDr>
 </file>
 
@@ -7612,7 +7631,7 @@
       <row>14</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="25200000" cy="25200000"/>
+    <ext cx="18000000" cy="9000000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -8143,6 +8162,33 @@
 </wsDr>
 </file>
 
+<file path=xl/drawings/drawing48.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="18000000" cy="9000000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
@@ -8233,7 +8279,7 @@
       <row>14</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="18000000" cy="9000000"/>
+    <ext cx="25200000" cy="25200000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -8562,7 +8608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8576,6 +8622,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
